--- a/data/public/qut_experiments/experiment_20170915_20170921_cinque.xlsx
+++ b/data/public/qut_experiments/experiment_20170915_20170921_cinque.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/picotti_qut_edu_au/Documents/PostDoc/ASTRI/python_soiling_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\HelioSoil\data\public\qut_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_DCD7BAD35A65056362117BE1955A63584654F825" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC437A5B-A62C-4224-80E6-311AFB373D9F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866454A3-2E6F-4EF3-9D89-0E0C454ED47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7080" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Weather" sheetId="2" r:id="rId1"/>
-    <sheet name="Tilts" sheetId="3" r:id="rId2"/>
-    <sheet name="Reflectance_Average" sheetId="4" r:id="rId3"/>
-    <sheet name="Reflectance_Sigma" sheetId="5" r:id="rId4"/>
+    <sheet name="Dust" sheetId="6" r:id="rId1"/>
+    <sheet name="Weather" sheetId="2" r:id="rId2"/>
+    <sheet name="Tilts" sheetId="3" r:id="rId3"/>
+    <sheet name="Reflectance_Average" sheetId="4" r:id="rId4"/>
+    <sheet name="Reflectance_Sigma" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Time</t>
   </si>
@@ -51,12 +52,106 @@
   <si>
     <t>Mirror_5</t>
   </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>0.001;1000;100</t>
+  </si>
+  <si>
+    <t>µm</t>
+  </si>
+  <si>
+    <t>minimum, maximum, number of bins (log spacing)</t>
+  </si>
+  <si>
+    <t>N_size</t>
+  </si>
+  <si>
+    <t>order of the size distribution (2=BINOMIAL, 3=trinomial)</t>
+  </si>
+  <si>
+    <t>Nd</t>
+  </si>
+  <si>
+    <t>3000;999.875;0.125</t>
+  </si>
+  <si>
+    <t>URBAN - Number of particles for each log-normal mode</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>0.0117;0.051231;0.8226</t>
+  </si>
+  <si>
+    <t>URBAN - mean of each log-normal mode - log10 to be applied</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>1.7061;2.239;2.512</t>
+  </si>
+  <si>
+    <t>URBAN - std of each log-normal mode - log10 to be applied</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>dust material density</t>
+  </si>
+  <si>
+    <t>hamaker_dust</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Hamaker constant of quartz (dust)</t>
+  </si>
+  <si>
+    <t>poisson_dust</t>
+  </si>
+  <si>
+    <t>Poisson ration of quartz (dust)</t>
+  </si>
+  <si>
+    <t>youngs_modulus_dust</t>
+  </si>
+  <si>
+    <t>N/m2</t>
+  </si>
+  <si>
+    <t>Young's modulus of quartz (dust)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -135,10 +230,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -148,9 +244,12 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E4A246C0-954B-44B6-B734-21D5E41E818D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,6 +560,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6724DA51-CB01-47A2-9D3D-F0D1159B42E2}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="21.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="10">
+        <v>8.5000000000000005E-20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="10">
+        <v>72400000000</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D155"/>
   <sheetViews>
@@ -2649,7 +2900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F155"/>
   <sheetViews>
@@ -5768,7 +6019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6007,11 +6258,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>

--- a/data/public/qut_experiments/experiment_20170915_20170921_cinque.xlsx
+++ b/data/public/qut_experiments/experiment_20170915_20170921_cinque.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cholette\Dropbox\research\toolboxes_and_code\python_soiling_model\HelioSoil\data\public\qut_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5EA23-4DEB-4FA0-A4D6-01E90ADE0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17A4538-5A02-446A-BF37-06A12CBEB19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="6110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-360" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dust" sheetId="6" r:id="rId1"/>
-    <sheet name="Source_Intensity" sheetId="7" r:id="rId2"/>
+    <sheet name="Source_Intensity" sheetId="8" r:id="rId2"/>
     <sheet name="Weather" sheetId="2" r:id="rId3"/>
     <sheet name="Tilts" sheetId="3" r:id="rId4"/>
     <sheet name="Reflectance_Average" sheetId="4" r:id="rId5"/>
     <sheet name="Reflectance_Sigma" sheetId="5" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Time</t>
   </si>
@@ -174,16 +177,15 @@
   <si>
     <t>Source Intensity (W/m^2 nm)</t>
   </si>
+  <si>
+    <t>DNS Reflectometer Data from: https://www.devicesandservices.com/15R-RGB%20Spec%20Sheet.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -283,7 +285,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,6 +304,2787 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Source_Intensity!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Source Intensity (W/m^2 nm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Source_Intensity!$A$2:$A$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Source_Intensity!$B$2:$B$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="201"/>
+                <c:pt idx="0">
+                  <c:v>1.5338106793244656E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9001926561053196E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3456329471668626E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8850876448099608E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5358555015075786E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3178400076330815E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2538192009853931E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.369718512085289E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6948808183874848E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2623266850553852E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1108996538242306E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3275965284957046E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5808618705241848E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.875677984858105E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2174772724855216E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6121409853918254E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0659889794007553E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5857590676413885E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1785746099929272E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8518990547354E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6134762834133725E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4712558031226858E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4333020850789674E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.5076876655682046E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7023700041287075E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.11025052530448531</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.12483030799583289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14083025205384148</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1583100226219388</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17731987039779637</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19789869908361474</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22007211299479595</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2438504869265247</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26922710474659961</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.29617641665026678</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32465246735834968</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35458754856089897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38589112843021905</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.41844910891303544</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45212345767308282</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48675225595997168</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52215019635797977</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55810955541668272</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.59440165575021864</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.6307788205474284</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66697681085847449</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.70271772286839773</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.73771330903353483</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.7716686738745262</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.80428628283847392</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.835270211411272</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.86433055200958619</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.89118788850418451</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.91557774286197768</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.93725489561267772</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95599748183309996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.97161076718912276</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98393051427250833</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99282585790381339</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99820161902843729</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99820161902843729</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99282585790381339</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.98393051427250833</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.97161076718912276</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.95599748183309996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.93725489561267772</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.91557774286197768</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.89118788850418451</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.86433055200958619</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.835270211411272</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.80428628283847392</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.7716686738745262</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73771330903353483</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.70271772286839773</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.66697681085847449</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.6307788205474284</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.59440165575021864</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.55810955541668272</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.52215019635797977</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.48675225595997168</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.45212345767308282</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.41844910891303544</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.38589112843021905</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.35458754856089897</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.32465246735834968</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.29617641665026678</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.26922710474659961</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.2438504869265247</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.22007211299479595</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.19789869908361474</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.17731987039779637</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.1583100226219388</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.14083025205384148</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.12483030799583289</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.11025052530448531</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.7023700041287075E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.5076876655682046E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.4333020850789674E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.4712558031226858E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.6134762834133725E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.8518990547354E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.1785746099929272E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.5857590676413885E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.0659889794007553E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.6121409853918254E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.2174772724855216E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.875677984858105E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.5808618705241848E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3275965284957046E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.1108996538242306E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9.2623266850553852E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7.6948808183874848E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>6.369718512085289E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.2538192009853931E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.3178400076330815E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.5358555015075786E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.8850876448099608E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.3456329471668626E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.9001926561053196E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.5338106793244656E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80C4-412C-930C-E1E05B5A48F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="738788752"/>
+        <c:axId val="738790832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="738788752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="850"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Wavelength [nm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738790832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="738790832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Normalized intensity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="738788752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9262970-00DF-4832-AEE9-D6B462CB5D38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>275854</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261369</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>174828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD3FE98-2D99-4FE6-BA18-E14CA4F93221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819154" y="6136821"/>
+          <a:ext cx="7910315" cy="4706007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Dust"/>
+      <sheetName val="Source_Intensity"/>
+      <sheetName val="Weather"/>
+      <sheetName val="Tilts"/>
+      <sheetName val="Reflectance_Average"/>
+      <sheetName val="Reflectance_Sigma"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Source Intensity (W/m^2 nm)</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>490</v>
+          </cell>
+          <cell r="B2">
+            <v>1.5338106793244656E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>491</v>
+          </cell>
+          <cell r="B3">
+            <v>1.9001926561053196E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>492</v>
+          </cell>
+          <cell r="B4">
+            <v>2.3456329471668626E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>493</v>
+          </cell>
+          <cell r="B5">
+            <v>2.8850876448099608E-3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>494</v>
+          </cell>
+          <cell r="B6">
+            <v>3.5358555015075786E-3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>495</v>
+          </cell>
+          <cell r="B7">
+            <v>4.3178400076330815E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>496</v>
+          </cell>
+          <cell r="B8">
+            <v>5.2538192009853931E-3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>497</v>
+          </cell>
+          <cell r="B9">
+            <v>6.369718512085289E-3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>498</v>
+          </cell>
+          <cell r="B10">
+            <v>7.6948808183874848E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>499</v>
+          </cell>
+          <cell r="B11">
+            <v>9.2623266850553852E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>500</v>
+          </cell>
+          <cell r="B12">
+            <v>1.1108996538242306E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>501</v>
+          </cell>
+          <cell r="B13">
+            <v>1.3275965284957046E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>502</v>
+          </cell>
+          <cell r="B14">
+            <v>1.5808618705241848E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>503</v>
+          </cell>
+          <cell r="B15">
+            <v>1.875677984858105E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>504</v>
+          </cell>
+          <cell r="B16">
+            <v>2.2174772724855216E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>505</v>
+          </cell>
+          <cell r="B17">
+            <v>2.6121409853918254E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>506</v>
+          </cell>
+          <cell r="B18">
+            <v>3.0659889794007553E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>507</v>
+          </cell>
+          <cell r="B19">
+            <v>3.5857590676413885E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>508</v>
+          </cell>
+          <cell r="B20">
+            <v>4.1785746099929272E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>509</v>
+          </cell>
+          <cell r="B21">
+            <v>4.8518990547354E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>510</v>
+          </cell>
+          <cell r="B22">
+            <v>5.6134762834133725E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>511</v>
+          </cell>
+          <cell r="B23">
+            <v>6.4712558031226858E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>512</v>
+          </cell>
+          <cell r="B24">
+            <v>7.4333020850789674E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>513</v>
+          </cell>
+          <cell r="B25">
+            <v>8.5076876655682046E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>514</v>
+          </cell>
+          <cell r="B26">
+            <v>9.7023700041287075E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>515</v>
+          </cell>
+          <cell r="B27">
+            <v>0.11025052530448531</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>516</v>
+          </cell>
+          <cell r="B28">
+            <v>0.12483030799583289</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>517</v>
+          </cell>
+          <cell r="B29">
+            <v>0.14083025205384148</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>518</v>
+          </cell>
+          <cell r="B30">
+            <v>0.1583100226219388</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>519</v>
+          </cell>
+          <cell r="B31">
+            <v>0.17731987039779637</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>520</v>
+          </cell>
+          <cell r="B32">
+            <v>0.19789869908361474</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>521</v>
+          </cell>
+          <cell r="B33">
+            <v>0.22007211299479595</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>522</v>
+          </cell>
+          <cell r="B34">
+            <v>0.2438504869265247</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>523</v>
+          </cell>
+          <cell r="B35">
+            <v>0.26922710474659961</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>524</v>
+          </cell>
+          <cell r="B36">
+            <v>0.29617641665026678</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>525</v>
+          </cell>
+          <cell r="B37">
+            <v>0.32465246735834968</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>526</v>
+          </cell>
+          <cell r="B38">
+            <v>0.35458754856089897</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>527</v>
+          </cell>
+          <cell r="B39">
+            <v>0.38589112843021905</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>528</v>
+          </cell>
+          <cell r="B40">
+            <v>0.41844910891303544</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>529</v>
+          </cell>
+          <cell r="B41">
+            <v>0.45212345767308282</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>530</v>
+          </cell>
+          <cell r="B42">
+            <v>0.48675225595997168</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>531</v>
+          </cell>
+          <cell r="B43">
+            <v>0.52215019635797977</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>532</v>
+          </cell>
+          <cell r="B44">
+            <v>0.55810955541668272</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>533</v>
+          </cell>
+          <cell r="B45">
+            <v>0.59440165575021864</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>534</v>
+          </cell>
+          <cell r="B46">
+            <v>0.6307788205474284</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>535</v>
+          </cell>
+          <cell r="B47">
+            <v>0.66697681085847449</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>536</v>
+          </cell>
+          <cell r="B48">
+            <v>0.70271772286839773</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>537</v>
+          </cell>
+          <cell r="B49">
+            <v>0.73771330903353483</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>538</v>
+          </cell>
+          <cell r="B50">
+            <v>0.7716686738745262</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>539</v>
+          </cell>
+          <cell r="B51">
+            <v>0.80428628283847392</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>540</v>
+          </cell>
+          <cell r="B52">
+            <v>0.835270211411272</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>541</v>
+          </cell>
+          <cell r="B53">
+            <v>0.86433055200958619</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>542</v>
+          </cell>
+          <cell r="B54">
+            <v>0.89118788850418451</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>543</v>
+          </cell>
+          <cell r="B55">
+            <v>0.91557774286197768</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>544</v>
+          </cell>
+          <cell r="B56">
+            <v>0.93725489561267772</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>545</v>
+          </cell>
+          <cell r="B57">
+            <v>0.95599748183309996</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>546</v>
+          </cell>
+          <cell r="B58">
+            <v>0.97161076718912276</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>547</v>
+          </cell>
+          <cell r="B59">
+            <v>0.98393051427250833</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>548</v>
+          </cell>
+          <cell r="B60">
+            <v>0.99282585790381339</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>549</v>
+          </cell>
+          <cell r="B61">
+            <v>0.99820161902843729</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>550</v>
+          </cell>
+          <cell r="B62">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>551</v>
+          </cell>
+          <cell r="B63">
+            <v>0.99820161902843729</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>552</v>
+          </cell>
+          <cell r="B64">
+            <v>0.99282585790381339</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>553</v>
+          </cell>
+          <cell r="B65">
+            <v>0.98393051427250833</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>554</v>
+          </cell>
+          <cell r="B66">
+            <v>0.97161076718912276</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>555</v>
+          </cell>
+          <cell r="B67">
+            <v>0.95599748183309996</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>556</v>
+          </cell>
+          <cell r="B68">
+            <v>0.93725489561267772</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>557</v>
+          </cell>
+          <cell r="B69">
+            <v>0.91557774286197768</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>558</v>
+          </cell>
+          <cell r="B70">
+            <v>0.89118788850418451</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>559</v>
+          </cell>
+          <cell r="B71">
+            <v>0.86433055200958619</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>560</v>
+          </cell>
+          <cell r="B72">
+            <v>0.835270211411272</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>561</v>
+          </cell>
+          <cell r="B73">
+            <v>0.80428628283847392</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>562</v>
+          </cell>
+          <cell r="B74">
+            <v>0.7716686738745262</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>563</v>
+          </cell>
+          <cell r="B75">
+            <v>0.73771330903353483</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>564</v>
+          </cell>
+          <cell r="B76">
+            <v>0.70271772286839773</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>565</v>
+          </cell>
+          <cell r="B77">
+            <v>0.66697681085847449</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>566</v>
+          </cell>
+          <cell r="B78">
+            <v>0.6307788205474284</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>567</v>
+          </cell>
+          <cell r="B79">
+            <v>0.59440165575021864</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>568</v>
+          </cell>
+          <cell r="B80">
+            <v>0.55810955541668272</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>569</v>
+          </cell>
+          <cell r="B81">
+            <v>0.52215019635797977</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>570</v>
+          </cell>
+          <cell r="B82">
+            <v>0.48675225595997168</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>571</v>
+          </cell>
+          <cell r="B83">
+            <v>0.45212345767308282</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>572</v>
+          </cell>
+          <cell r="B84">
+            <v>0.41844910891303544</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>573</v>
+          </cell>
+          <cell r="B85">
+            <v>0.38589112843021905</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>574</v>
+          </cell>
+          <cell r="B86">
+            <v>0.35458754856089897</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>575</v>
+          </cell>
+          <cell r="B87">
+            <v>0.32465246735834968</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>576</v>
+          </cell>
+          <cell r="B88">
+            <v>0.29617641665026678</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>577</v>
+          </cell>
+          <cell r="B89">
+            <v>0.26922710474659961</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>578</v>
+          </cell>
+          <cell r="B90">
+            <v>0.2438504869265247</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>579</v>
+          </cell>
+          <cell r="B91">
+            <v>0.22007211299479595</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>580</v>
+          </cell>
+          <cell r="B92">
+            <v>0.19789869908361474</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>581</v>
+          </cell>
+          <cell r="B93">
+            <v>0.17731987039779637</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>582</v>
+          </cell>
+          <cell r="B94">
+            <v>0.1583100226219388</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>583</v>
+          </cell>
+          <cell r="B95">
+            <v>0.14083025205384148</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>584</v>
+          </cell>
+          <cell r="B96">
+            <v>0.12483030799583289</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>585</v>
+          </cell>
+          <cell r="B97">
+            <v>0.11025052530448531</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>586</v>
+          </cell>
+          <cell r="B98">
+            <v>9.7023700041287075E-2</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>587</v>
+          </cell>
+          <cell r="B99">
+            <v>8.5076876655682046E-2</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>588</v>
+          </cell>
+          <cell r="B100">
+            <v>7.4333020850789674E-2</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>589</v>
+          </cell>
+          <cell r="B101">
+            <v>6.4712558031226858E-2</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>590</v>
+          </cell>
+          <cell r="B102">
+            <v>5.6134762834133725E-2</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>591</v>
+          </cell>
+          <cell r="B103">
+            <v>4.8518990547354E-2</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>592</v>
+          </cell>
+          <cell r="B104">
+            <v>4.1785746099929272E-2</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>593</v>
+          </cell>
+          <cell r="B105">
+            <v>3.5857590676413885E-2</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>594</v>
+          </cell>
+          <cell r="B106">
+            <v>3.0659889794007553E-2</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>595</v>
+          </cell>
+          <cell r="B107">
+            <v>2.6121409853918254E-2</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>596</v>
+          </cell>
+          <cell r="B108">
+            <v>2.2174772724855216E-2</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>597</v>
+          </cell>
+          <cell r="B109">
+            <v>1.875677984858105E-2</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>598</v>
+          </cell>
+          <cell r="B110">
+            <v>1.5808618705241848E-2</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>599</v>
+          </cell>
+          <cell r="B111">
+            <v>1.3275965284957046E-2</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>600</v>
+          </cell>
+          <cell r="B112">
+            <v>1.1108996538242306E-2</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>601</v>
+          </cell>
+          <cell r="B113">
+            <v>9.2623266850553852E-3</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>602</v>
+          </cell>
+          <cell r="B114">
+            <v>7.6948808183874848E-3</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>603</v>
+          </cell>
+          <cell r="B115">
+            <v>6.369718512085289E-3</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>604</v>
+          </cell>
+          <cell r="B116">
+            <v>5.2538192009853931E-3</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>605</v>
+          </cell>
+          <cell r="B117">
+            <v>4.3178400076330815E-3</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>606</v>
+          </cell>
+          <cell r="B118">
+            <v>3.5358555015075786E-3</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>607</v>
+          </cell>
+          <cell r="B119">
+            <v>2.8850876448099608E-3</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>608</v>
+          </cell>
+          <cell r="B120">
+            <v>2.3456329471668626E-3</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>609</v>
+          </cell>
+          <cell r="B121">
+            <v>1.9001926561053196E-3</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>610</v>
+          </cell>
+          <cell r="B122">
+            <v>1.5338106793244656E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,7 +3376,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -774,1839 +3559,1228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD64AE4D-F2BB-4334-92B1-21C2F58674B1}">
-  <dimension ref="A1:B202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FC06D7-6A2C-4669-86E2-DB789A01D875}">
+  <dimension ref="A1:L202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="B2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <f>_xlfn.NORM.DIST(A2,$E$2,$E$3,FALSE)/_xlfn.NORM.DIST($E$2,$E$2,$E$3,FALSE)</f>
+        <v>1.5338106793244656E-3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="10">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <f>A2+0.1</f>
-        <v>540.1</v>
+        <v>491</v>
       </c>
       <c r="B3" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B3:B66" si="0">_xlfn.NORM.DIST(A3,$E$2,$E$3,FALSE)/_xlfn.NORM.DIST($E$2,$E$2,$E$3,FALSE)</f>
+        <v>1.9001926561053196E-3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10">
+        <f>50/3</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <f t="shared" ref="A4:A67" si="0">A3+0.1</f>
-        <v>540.20000000000005</v>
+        <v>492</v>
       </c>
       <c r="B4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.3456329471668626E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
+        <v>493</v>
+      </c>
+      <c r="B5" s="10">
         <f t="shared" si="0"/>
-        <v>540.30000000000007</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8850876448099608E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
+        <v>494</v>
+      </c>
+      <c r="B6" s="10">
         <f t="shared" si="0"/>
-        <v>540.40000000000009</v>
-      </c>
-      <c r="B6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.5358555015075786E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
+        <v>495</v>
+      </c>
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
-        <v>540.50000000000011</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.3178400076330815E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
+        <v>496</v>
+      </c>
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
-        <v>540.60000000000014</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.2538192009853931E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
+        <v>497</v>
+      </c>
+      <c r="B9" s="10">
         <f t="shared" si="0"/>
-        <v>540.70000000000016</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.369718512085289E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
+        <v>498</v>
+      </c>
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
-        <v>540.80000000000018</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.6948808183874848E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
+        <v>499</v>
+      </c>
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
-        <v>540.9000000000002</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.2623266850553852E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
+        <v>500</v>
+      </c>
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
-        <v>541.00000000000023</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.1108996538242306E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
+        <v>501</v>
+      </c>
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
-        <v>541.10000000000025</v>
-      </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.3275965284957046E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
+        <v>502</v>
+      </c>
+      <c r="B14" s="10">
         <f t="shared" si="0"/>
-        <v>541.20000000000027</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.5808618705241848E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
+        <v>503</v>
+      </c>
+      <c r="B15" s="10">
         <f t="shared" si="0"/>
-        <v>541.3000000000003</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.875677984858105E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
+        <v>504</v>
+      </c>
+      <c r="B16" s="10">
         <f t="shared" si="0"/>
-        <v>541.40000000000032</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.2174772724855216E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
+        <v>505</v>
+      </c>
+      <c r="B17" s="10">
         <f t="shared" si="0"/>
-        <v>541.50000000000034</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.6121409853918254E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
+        <v>506</v>
+      </c>
+      <c r="B18" s="10">
         <f t="shared" si="0"/>
-        <v>541.60000000000036</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.0659889794007553E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
+        <v>507</v>
+      </c>
+      <c r="B19" s="10">
         <f t="shared" si="0"/>
-        <v>541.70000000000039</v>
-      </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.5857590676413885E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
+        <v>508</v>
+      </c>
+      <c r="B20" s="10">
         <f t="shared" si="0"/>
-        <v>541.80000000000041</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.1785746099929272E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
+        <v>509</v>
+      </c>
+      <c r="B21" s="10">
         <f t="shared" si="0"/>
-        <v>541.90000000000043</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.8518990547354E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
+        <v>510</v>
+      </c>
+      <c r="B22" s="10">
         <f t="shared" si="0"/>
-        <v>542.00000000000045</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.6134762834133725E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
+        <v>511</v>
+      </c>
+      <c r="B23" s="10">
         <f t="shared" si="0"/>
-        <v>542.10000000000048</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.4712558031226858E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
+        <v>512</v>
+      </c>
+      <c r="B24" s="10">
         <f t="shared" si="0"/>
-        <v>542.2000000000005</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.4333020850789674E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
+        <v>513</v>
+      </c>
+      <c r="B25" s="10">
         <f t="shared" si="0"/>
-        <v>542.30000000000052</v>
-      </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.5076876655682046E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
+        <v>514</v>
+      </c>
+      <c r="B26" s="10">
         <f t="shared" si="0"/>
-        <v>542.40000000000055</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.7023700041287075E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
+        <v>515</v>
+      </c>
+      <c r="B27" s="10">
         <f t="shared" si="0"/>
-        <v>542.50000000000057</v>
-      </c>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.11025052530448531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
+        <v>516</v>
+      </c>
+      <c r="B28" s="10">
         <f t="shared" si="0"/>
-        <v>542.60000000000059</v>
-      </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.12483030799583289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
+        <v>517</v>
+      </c>
+      <c r="B29" s="10">
         <f t="shared" si="0"/>
-        <v>542.70000000000061</v>
-      </c>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.14083025205384148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
+        <v>518</v>
+      </c>
+      <c r="B30" s="10">
         <f t="shared" si="0"/>
-        <v>542.80000000000064</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1583100226219388</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
+        <v>519</v>
+      </c>
+      <c r="B31" s="10">
         <f t="shared" si="0"/>
-        <v>542.90000000000066</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.17731987039779637</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
+        <v>520</v>
+      </c>
+      <c r="B32" s="10">
         <f t="shared" si="0"/>
-        <v>543.00000000000068</v>
-      </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
+        <v>0.19789869908361474</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
+        <v>521</v>
+      </c>
+      <c r="B33" s="10">
         <f t="shared" si="0"/>
-        <v>543.1000000000007</v>
-      </c>
-      <c r="B33" s="10">
-        <v>0</v>
+        <v>0.22007211299479595</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
+        <v>522</v>
+      </c>
+      <c r="B34" s="10">
         <f t="shared" si="0"/>
-        <v>543.20000000000073</v>
-      </c>
-      <c r="B34" s="10">
-        <v>0</v>
+        <v>0.2438504869265247</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
+        <v>523</v>
+      </c>
+      <c r="B35" s="10">
         <f t="shared" si="0"/>
-        <v>543.30000000000075</v>
-      </c>
-      <c r="B35" s="10">
-        <v>0</v>
+        <v>0.26922710474659961</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
+        <v>524</v>
+      </c>
+      <c r="B36" s="10">
         <f t="shared" si="0"/>
-        <v>543.40000000000077</v>
-      </c>
-      <c r="B36" s="10">
-        <v>0</v>
+        <v>0.29617641665026678</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
+        <v>525</v>
+      </c>
+      <c r="B37" s="10">
         <f t="shared" si="0"/>
-        <v>543.5000000000008</v>
-      </c>
-      <c r="B37" s="10">
-        <v>0</v>
+        <v>0.32465246735834968</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
+        <v>526</v>
+      </c>
+      <c r="B38" s="10">
         <f t="shared" si="0"/>
-        <v>543.60000000000082</v>
-      </c>
-      <c r="B38" s="10">
-        <v>0</v>
+        <v>0.35458754856089897</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
+        <v>527</v>
+      </c>
+      <c r="B39" s="10">
         <f t="shared" si="0"/>
-        <v>543.70000000000084</v>
-      </c>
-      <c r="B39" s="10">
-        <v>0</v>
+        <v>0.38589112843021905</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
+        <v>528</v>
+      </c>
+      <c r="B40" s="10">
         <f t="shared" si="0"/>
-        <v>543.80000000000086</v>
-      </c>
-      <c r="B40" s="10">
-        <v>0</v>
+        <v>0.41844910891303544</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
+        <v>529</v>
+      </c>
+      <c r="B41" s="10">
         <f t="shared" si="0"/>
-        <v>543.90000000000089</v>
-      </c>
-      <c r="B41" s="10">
-        <v>0</v>
+        <v>0.45212345767308282</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
+        <v>530</v>
+      </c>
+      <c r="B42" s="10">
         <f t="shared" si="0"/>
-        <v>544.00000000000091</v>
-      </c>
-      <c r="B42" s="10">
-        <v>0</v>
+        <v>0.48675225595997168</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
+        <v>531</v>
+      </c>
+      <c r="B43" s="10">
         <f t="shared" si="0"/>
-        <v>544.10000000000093</v>
-      </c>
-      <c r="B43" s="10">
-        <v>0</v>
+        <v>0.52215019635797977</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
+        <v>532</v>
+      </c>
+      <c r="B44" s="10">
         <f t="shared" si="0"/>
-        <v>544.20000000000095</v>
-      </c>
-      <c r="B44" s="10">
-        <v>0</v>
+        <v>0.55810955541668272</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
+        <v>533</v>
+      </c>
+      <c r="B45" s="10">
         <f t="shared" si="0"/>
-        <v>544.30000000000098</v>
-      </c>
-      <c r="B45" s="10">
-        <v>0</v>
+        <v>0.59440165575021864</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
+        <v>534</v>
+      </c>
+      <c r="B46" s="10">
         <f t="shared" si="0"/>
-        <v>544.400000000001</v>
-      </c>
-      <c r="B46" s="10">
-        <v>0</v>
+        <v>0.6307788205474284</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
+        <v>535</v>
+      </c>
+      <c r="B47" s="10">
         <f t="shared" si="0"/>
-        <v>544.50000000000102</v>
-      </c>
-      <c r="B47" s="10">
-        <v>0</v>
+        <v>0.66697681085847449</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
+        <v>536</v>
+      </c>
+      <c r="B48" s="10">
         <f t="shared" si="0"/>
-        <v>544.60000000000105</v>
-      </c>
-      <c r="B48" s="10">
-        <v>0</v>
+        <v>0.70271772286839773</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
+        <v>537</v>
+      </c>
+      <c r="B49" s="10">
         <f t="shared" si="0"/>
-        <v>544.70000000000107</v>
-      </c>
-      <c r="B49" s="10">
-        <v>0</v>
+        <v>0.73771330903353483</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
+        <v>538</v>
+      </c>
+      <c r="B50" s="10">
         <f t="shared" si="0"/>
-        <v>544.80000000000109</v>
-      </c>
-      <c r="B50" s="10">
-        <v>0</v>
+        <v>0.7716686738745262</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
+        <v>539</v>
+      </c>
+      <c r="B51" s="10">
         <f t="shared" si="0"/>
-        <v>544.90000000000111</v>
-      </c>
-      <c r="B51" s="10">
-        <v>0</v>
+        <v>0.80428628283847392</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
+        <v>540</v>
+      </c>
+      <c r="B52" s="10">
         <f t="shared" si="0"/>
-        <v>545.00000000000114</v>
-      </c>
-      <c r="B52" s="10">
-        <v>0</v>
+        <v>0.835270211411272</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
+        <v>541</v>
+      </c>
+      <c r="B53" s="10">
         <f t="shared" si="0"/>
-        <v>545.10000000000116</v>
-      </c>
-      <c r="B53" s="10">
-        <v>0</v>
+        <v>0.86433055200958619</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
+        <v>542</v>
+      </c>
+      <c r="B54" s="10">
         <f t="shared" si="0"/>
-        <v>545.20000000000118</v>
-      </c>
-      <c r="B54" s="10">
-        <v>0</v>
+        <v>0.89118788850418451</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
+        <v>543</v>
+      </c>
+      <c r="B55" s="10">
         <f t="shared" si="0"/>
-        <v>545.30000000000121</v>
-      </c>
-      <c r="B55" s="10">
-        <v>0</v>
+        <v>0.91557774286197768</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
+        <v>544</v>
+      </c>
+      <c r="B56" s="10">
         <f t="shared" si="0"/>
-        <v>545.40000000000123</v>
-      </c>
-      <c r="B56" s="10">
-        <v>0</v>
+        <v>0.93725489561267772</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
+        <v>545</v>
+      </c>
+      <c r="B57" s="10">
         <f t="shared" si="0"/>
-        <v>545.50000000000125</v>
-      </c>
-      <c r="B57" s="10">
-        <v>0</v>
+        <v>0.95599748183309996</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
+        <v>546</v>
+      </c>
+      <c r="B58" s="10">
         <f t="shared" si="0"/>
-        <v>545.60000000000127</v>
-      </c>
-      <c r="B58" s="10">
-        <v>0</v>
+        <v>0.97161076718912276</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
+        <v>547</v>
+      </c>
+      <c r="B59" s="10">
         <f t="shared" si="0"/>
-        <v>545.7000000000013</v>
-      </c>
-      <c r="B59" s="10">
-        <v>0</v>
+        <v>0.98393051427250833</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
+        <v>548</v>
+      </c>
+      <c r="B60" s="10">
         <f t="shared" si="0"/>
-        <v>545.80000000000132</v>
-      </c>
-      <c r="B60" s="10">
-        <v>0</v>
+        <v>0.99282585790381339</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
+        <v>549</v>
+      </c>
+      <c r="B61" s="10">
         <f t="shared" si="0"/>
-        <v>545.90000000000134</v>
-      </c>
-      <c r="B61" s="10">
-        <v>0</v>
+        <v>0.99820161902843729</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
+        <v>550</v>
+      </c>
+      <c r="B62" s="10">
         <f t="shared" si="0"/>
-        <v>546.00000000000136</v>
-      </c>
-      <c r="B62" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
+        <v>551</v>
+      </c>
+      <c r="B63" s="10">
         <f t="shared" si="0"/>
-        <v>546.10000000000139</v>
-      </c>
-      <c r="B63" s="10">
-        <v>0</v>
+        <v>0.99820161902843729</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
+        <v>552</v>
+      </c>
+      <c r="B64" s="10">
         <f t="shared" si="0"/>
-        <v>546.20000000000141</v>
-      </c>
-      <c r="B64" s="10">
-        <v>0</v>
+        <v>0.99282585790381339</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
+        <v>553</v>
+      </c>
+      <c r="B65" s="10">
         <f t="shared" si="0"/>
-        <v>546.30000000000143</v>
-      </c>
-      <c r="B65" s="10">
-        <v>0</v>
+        <v>0.98393051427250833</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
+        <v>554</v>
+      </c>
+      <c r="B66" s="10">
         <f t="shared" si="0"/>
-        <v>546.40000000000146</v>
-      </c>
-      <c r="B66" s="10">
-        <v>0</v>
+        <v>0.97161076718912276</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
-        <f t="shared" si="0"/>
-        <v>546.50000000000148</v>
+        <v>555</v>
       </c>
       <c r="B67" s="10">
-        <v>0</v>
+        <f t="shared" ref="B67:B122" si="1">_xlfn.NORM.DIST(A67,$E$2,$E$3,FALSE)/_xlfn.NORM.DIST($E$2,$E$2,$E$3,FALSE)</f>
+        <v>0.95599748183309996</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
-        <f t="shared" ref="A68:A131" si="1">A67+0.1</f>
-        <v>546.6000000000015</v>
+        <v>556</v>
       </c>
       <c r="B68" s="10">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.93725489561267772</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
+        <v>557</v>
+      </c>
+      <c r="B69" s="10">
         <f t="shared" si="1"/>
-        <v>546.70000000000152</v>
-      </c>
-      <c r="B69" s="10">
-        <v>0</v>
+        <v>0.91557774286197768</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
+        <v>558</v>
+      </c>
+      <c r="B70" s="10">
         <f t="shared" si="1"/>
-        <v>546.80000000000155</v>
-      </c>
-      <c r="B70" s="10">
-        <v>0</v>
+        <v>0.89118788850418451</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
+        <v>559</v>
+      </c>
+      <c r="B71" s="10">
         <f t="shared" si="1"/>
-        <v>546.90000000000157</v>
-      </c>
-      <c r="B71" s="10">
-        <v>0</v>
+        <v>0.86433055200958619</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
+        <v>560</v>
+      </c>
+      <c r="B72" s="10">
         <f t="shared" si="1"/>
-        <v>547.00000000000159</v>
-      </c>
-      <c r="B72" s="10">
-        <v>0</v>
+        <v>0.835270211411272</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
+        <v>561</v>
+      </c>
+      <c r="B73" s="10">
         <f t="shared" si="1"/>
-        <v>547.10000000000161</v>
-      </c>
-      <c r="B73" s="10">
-        <v>0</v>
+        <v>0.80428628283847392</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
+        <v>562</v>
+      </c>
+      <c r="B74" s="10">
         <f t="shared" si="1"/>
-        <v>547.20000000000164</v>
-      </c>
-      <c r="B74" s="10">
-        <v>0</v>
+        <v>0.7716686738745262</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
+        <v>563</v>
+      </c>
+      <c r="B75" s="10">
         <f t="shared" si="1"/>
-        <v>547.30000000000166</v>
-      </c>
-      <c r="B75" s="10">
-        <v>0</v>
+        <v>0.73771330903353483</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
+        <v>564</v>
+      </c>
+      <c r="B76" s="10">
         <f t="shared" si="1"/>
-        <v>547.40000000000168</v>
-      </c>
-      <c r="B76" s="10">
-        <v>0</v>
+        <v>0.70271772286839773</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
+        <v>565</v>
+      </c>
+      <c r="B77" s="10">
         <f t="shared" si="1"/>
-        <v>547.50000000000171</v>
-      </c>
-      <c r="B77" s="10">
-        <v>0</v>
+        <v>0.66697681085847449</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
+        <v>566</v>
+      </c>
+      <c r="B78" s="10">
         <f t="shared" si="1"/>
-        <v>547.60000000000173</v>
-      </c>
-      <c r="B78" s="10">
-        <v>0</v>
+        <v>0.6307788205474284</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
+        <v>567</v>
+      </c>
+      <c r="B79" s="10">
         <f t="shared" si="1"/>
-        <v>547.70000000000175</v>
-      </c>
-      <c r="B79" s="10">
-        <v>0</v>
+        <v>0.59440165575021864</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
+        <v>568</v>
+      </c>
+      <c r="B80" s="10">
         <f t="shared" si="1"/>
-        <v>547.80000000000177</v>
-      </c>
-      <c r="B80" s="10">
-        <v>0</v>
+        <v>0.55810955541668272</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
+        <v>569</v>
+      </c>
+      <c r="B81" s="10">
         <f t="shared" si="1"/>
-        <v>547.9000000000018</v>
-      </c>
-      <c r="B81" s="10">
-        <v>0</v>
+        <v>0.52215019635797977</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
+        <v>570</v>
+      </c>
+      <c r="B82" s="10">
         <f t="shared" si="1"/>
-        <v>548.00000000000182</v>
-      </c>
-      <c r="B82" s="10">
-        <v>0</v>
+        <v>0.48675225595997168</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
+        <v>571</v>
+      </c>
+      <c r="B83" s="10">
         <f t="shared" si="1"/>
-        <v>548.10000000000184</v>
-      </c>
-      <c r="B83" s="10">
-        <v>0</v>
+        <v>0.45212345767308282</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
+        <v>572</v>
+      </c>
+      <c r="B84" s="10">
         <f t="shared" si="1"/>
-        <v>548.20000000000186</v>
-      </c>
-      <c r="B84" s="10">
-        <v>0</v>
+        <v>0.41844910891303544</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
+        <v>573</v>
+      </c>
+      <c r="B85" s="10">
         <f t="shared" si="1"/>
-        <v>548.30000000000189</v>
-      </c>
-      <c r="B85" s="10">
-        <v>0</v>
+        <v>0.38589112843021905</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
+        <v>574</v>
+      </c>
+      <c r="B86" s="10">
         <f t="shared" si="1"/>
-        <v>548.40000000000191</v>
-      </c>
-      <c r="B86" s="10">
-        <v>0</v>
+        <v>0.35458754856089897</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
+        <v>575</v>
+      </c>
+      <c r="B87" s="10">
         <f t="shared" si="1"/>
-        <v>548.50000000000193</v>
-      </c>
-      <c r="B87" s="10">
-        <v>0</v>
+        <v>0.32465246735834968</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
+        <v>576</v>
+      </c>
+      <c r="B88" s="10">
         <f t="shared" si="1"/>
-        <v>548.60000000000196</v>
-      </c>
-      <c r="B88" s="10">
-        <v>0</v>
+        <v>0.29617641665026678</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
+        <v>577</v>
+      </c>
+      <c r="B89" s="10">
         <f t="shared" si="1"/>
-        <v>548.70000000000198</v>
-      </c>
-      <c r="B89" s="10">
-        <v>0</v>
+        <v>0.26922710474659961</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
+        <v>578</v>
+      </c>
+      <c r="B90" s="10">
         <f t="shared" si="1"/>
-        <v>548.800000000002</v>
-      </c>
-      <c r="B90" s="10">
-        <v>0</v>
+        <v>0.2438504869265247</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
+        <v>579</v>
+      </c>
+      <c r="B91" s="10">
         <f t="shared" si="1"/>
-        <v>548.90000000000202</v>
-      </c>
-      <c r="B91" s="10">
-        <v>0</v>
+        <v>0.22007211299479595</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
+        <v>580</v>
+      </c>
+      <c r="B92" s="10">
         <f t="shared" si="1"/>
-        <v>549.00000000000205</v>
-      </c>
-      <c r="B92" s="10">
-        <v>0</v>
+        <v>0.19789869908361474</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
+        <v>581</v>
+      </c>
+      <c r="B93" s="10">
         <f t="shared" si="1"/>
-        <v>549.10000000000207</v>
-      </c>
-      <c r="B93" s="10">
-        <v>1</v>
+        <v>0.17731987039779637</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
+        <v>582</v>
+      </c>
+      <c r="B94" s="10">
         <f t="shared" si="1"/>
-        <v>549.20000000000209</v>
-      </c>
-      <c r="B94" s="10">
-        <v>1</v>
+        <v>0.1583100226219388</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
+        <v>583</v>
+      </c>
+      <c r="B95" s="10">
         <f t="shared" si="1"/>
-        <v>549.30000000000211</v>
-      </c>
-      <c r="B95" s="10">
-        <v>1</v>
+        <v>0.14083025205384148</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
+        <v>584</v>
+      </c>
+      <c r="B96" s="10">
         <f t="shared" si="1"/>
-        <v>549.40000000000214</v>
-      </c>
-      <c r="B96" s="10">
-        <v>1</v>
+        <v>0.12483030799583289</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
+        <v>585</v>
+      </c>
+      <c r="B97" s="10">
         <f t="shared" si="1"/>
-        <v>549.50000000000216</v>
-      </c>
-      <c r="B97" s="10">
-        <v>1</v>
+        <v>0.11025052530448531</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
+        <v>586</v>
+      </c>
+      <c r="B98" s="10">
         <f t="shared" si="1"/>
-        <v>549.60000000000218</v>
-      </c>
-      <c r="B98" s="10">
-        <v>1</v>
+        <v>9.7023700041287075E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
+        <v>587</v>
+      </c>
+      <c r="B99" s="10">
         <f t="shared" si="1"/>
-        <v>549.70000000000221</v>
-      </c>
-      <c r="B99" s="10">
-        <v>1</v>
+        <v>8.5076876655682046E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
+        <v>588</v>
+      </c>
+      <c r="B100" s="10">
         <f t="shared" si="1"/>
-        <v>549.80000000000223</v>
-      </c>
-      <c r="B100" s="10">
-        <v>1</v>
+        <v>7.4333020850789674E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
+        <v>589</v>
+      </c>
+      <c r="B101" s="10">
         <f t="shared" si="1"/>
-        <v>549.90000000000225</v>
-      </c>
-      <c r="B101" s="10">
-        <v>1</v>
+        <v>6.4712558031226858E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
+        <v>590</v>
+      </c>
+      <c r="B102" s="10">
         <f t="shared" si="1"/>
-        <v>550.00000000000227</v>
-      </c>
-      <c r="B102" s="10">
-        <v>1</v>
+        <v>5.6134762834133725E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
+        <v>591</v>
+      </c>
+      <c r="B103" s="10">
         <f t="shared" si="1"/>
-        <v>550.1000000000023</v>
-      </c>
-      <c r="B103" s="10">
-        <v>1</v>
+        <v>4.8518990547354E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
+        <v>592</v>
+      </c>
+      <c r="B104" s="10">
         <f t="shared" si="1"/>
-        <v>550.20000000000232</v>
-      </c>
-      <c r="B104" s="10">
-        <v>1</v>
+        <v>4.1785746099929272E-2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
+        <v>593</v>
+      </c>
+      <c r="B105" s="10">
         <f t="shared" si="1"/>
-        <v>550.30000000000234</v>
-      </c>
-      <c r="B105" s="10">
-        <v>1</v>
+        <v>3.5857590676413885E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
+        <v>594</v>
+      </c>
+      <c r="B106" s="10">
         <f t="shared" si="1"/>
-        <v>550.40000000000236</v>
-      </c>
-      <c r="B106" s="10">
-        <v>1</v>
+        <v>3.0659889794007553E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
+        <v>595</v>
+      </c>
+      <c r="B107" s="10">
         <f t="shared" si="1"/>
-        <v>550.50000000000239</v>
-      </c>
-      <c r="B107" s="10">
-        <v>1</v>
+        <v>2.6121409853918254E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
+        <v>596</v>
+      </c>
+      <c r="B108" s="10">
         <f t="shared" si="1"/>
-        <v>550.60000000000241</v>
-      </c>
-      <c r="B108" s="10">
-        <v>1</v>
+        <v>2.2174772724855216E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
+        <v>597</v>
+      </c>
+      <c r="B109" s="10">
         <f t="shared" si="1"/>
-        <v>550.70000000000243</v>
-      </c>
-      <c r="B109" s="10">
-        <v>1</v>
+        <v>1.875677984858105E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
+        <v>598</v>
+      </c>
+      <c r="B110" s="10">
         <f t="shared" si="1"/>
-        <v>550.80000000000246</v>
-      </c>
-      <c r="B110" s="10">
-        <v>1</v>
+        <v>1.5808618705241848E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
+        <v>599</v>
+      </c>
+      <c r="B111" s="10">
         <f t="shared" si="1"/>
-        <v>550.90000000000248</v>
-      </c>
-      <c r="B111" s="10">
-        <v>1</v>
+        <v>1.3275965284957046E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
+        <v>600</v>
+      </c>
+      <c r="B112" s="10">
         <f t="shared" si="1"/>
-        <v>551.0000000000025</v>
-      </c>
-      <c r="B112" s="10">
-        <v>1</v>
+        <v>1.1108996538242306E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
+        <v>601</v>
+      </c>
+      <c r="B113" s="10">
         <f t="shared" si="1"/>
-        <v>551.10000000000252</v>
-      </c>
-      <c r="B113" s="10">
-        <v>0</v>
+        <v>9.2623266850553852E-3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
+        <v>602</v>
+      </c>
+      <c r="B114" s="10">
         <f t="shared" si="1"/>
-        <v>551.20000000000255</v>
-      </c>
-      <c r="B114" s="10">
-        <v>0</v>
+        <v>7.6948808183874848E-3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
+        <v>603</v>
+      </c>
+      <c r="B115" s="10">
         <f t="shared" si="1"/>
-        <v>551.30000000000257</v>
-      </c>
-      <c r="B115" s="10">
-        <v>0</v>
+        <v>6.369718512085289E-3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
+        <v>604</v>
+      </c>
+      <c r="B116" s="10">
         <f t="shared" si="1"/>
-        <v>551.40000000000259</v>
-      </c>
-      <c r="B116" s="10">
-        <v>0</v>
+        <v>5.2538192009853931E-3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
+        <v>605</v>
+      </c>
+      <c r="B117" s="10">
         <f t="shared" si="1"/>
-        <v>551.50000000000261</v>
-      </c>
-      <c r="B117" s="10">
-        <v>0</v>
+        <v>4.3178400076330815E-3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
+        <v>606</v>
+      </c>
+      <c r="B118" s="10">
         <f t="shared" si="1"/>
-        <v>551.60000000000264</v>
-      </c>
-      <c r="B118" s="10">
-        <v>0</v>
+        <v>3.5358555015075786E-3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
+        <v>607</v>
+      </c>
+      <c r="B119" s="10">
         <f t="shared" si="1"/>
-        <v>551.70000000000266</v>
-      </c>
-      <c r="B119" s="10">
-        <v>0</v>
+        <v>2.8850876448099608E-3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
+        <v>608</v>
+      </c>
+      <c r="B120" s="10">
         <f t="shared" si="1"/>
-        <v>551.80000000000268</v>
-      </c>
-      <c r="B120" s="10">
-        <v>0</v>
+        <v>2.3456329471668626E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
+        <v>609</v>
+      </c>
+      <c r="B121" s="10">
         <f t="shared" si="1"/>
-        <v>551.90000000000271</v>
-      </c>
-      <c r="B121" s="10">
-        <v>0</v>
+        <v>1.9001926561053196E-3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
+        <v>610</v>
+      </c>
+      <c r="B122" s="10">
         <f t="shared" si="1"/>
-        <v>552.00000000000273</v>
-      </c>
-      <c r="B122" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
-        <f t="shared" si="1"/>
-        <v>552.10000000000275</v>
-      </c>
-      <c r="B123" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="10">
-        <f t="shared" si="1"/>
-        <v>552.20000000000277</v>
-      </c>
-      <c r="B124" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="10">
-        <f t="shared" si="1"/>
-        <v>552.3000000000028</v>
-      </c>
-      <c r="B125" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="10">
-        <f t="shared" si="1"/>
-        <v>552.40000000000282</v>
-      </c>
-      <c r="B126" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="10">
-        <f t="shared" si="1"/>
-        <v>552.50000000000284</v>
-      </c>
-      <c r="B127" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
-        <f t="shared" si="1"/>
-        <v>552.60000000000286</v>
-      </c>
-      <c r="B128" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="10">
-        <f t="shared" si="1"/>
-        <v>552.70000000000289</v>
-      </c>
-      <c r="B129" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="10">
-        <f t="shared" si="1"/>
-        <v>552.80000000000291</v>
-      </c>
-      <c r="B130" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
-        <f t="shared" si="1"/>
-        <v>552.90000000000293</v>
-      </c>
-      <c r="B131" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="10">
-        <f t="shared" ref="A132:A195" si="2">A131+0.1</f>
-        <v>553.00000000000296</v>
-      </c>
-      <c r="B132" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="10">
-        <f t="shared" si="2"/>
-        <v>553.10000000000298</v>
-      </c>
-      <c r="B133" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="10">
-        <f t="shared" si="2"/>
-        <v>553.200000000003</v>
-      </c>
-      <c r="B134" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="10">
-        <f t="shared" si="2"/>
-        <v>553.30000000000302</v>
-      </c>
-      <c r="B135" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
-        <f t="shared" si="2"/>
-        <v>553.40000000000305</v>
-      </c>
-      <c r="B136" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
-        <f t="shared" si="2"/>
-        <v>553.50000000000307</v>
-      </c>
-      <c r="B137" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="10">
-        <f t="shared" si="2"/>
-        <v>553.60000000000309</v>
-      </c>
-      <c r="B138" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="10">
-        <f t="shared" si="2"/>
-        <v>553.70000000000312</v>
-      </c>
-      <c r="B139" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="10">
-        <f t="shared" si="2"/>
-        <v>553.80000000000314</v>
-      </c>
-      <c r="B140" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="10">
-        <f t="shared" si="2"/>
-        <v>553.90000000000316</v>
-      </c>
-      <c r="B141" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
-        <f t="shared" si="2"/>
-        <v>554.00000000000318</v>
-      </c>
-      <c r="B142" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
-        <f t="shared" si="2"/>
-        <v>554.10000000000321</v>
-      </c>
-      <c r="B143" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
-        <f t="shared" si="2"/>
-        <v>554.20000000000323</v>
-      </c>
-      <c r="B144" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="10">
-        <f t="shared" si="2"/>
-        <v>554.30000000000325</v>
-      </c>
-      <c r="B145" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="10">
-        <f t="shared" si="2"/>
-        <v>554.40000000000327</v>
-      </c>
-      <c r="B146" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="10">
-        <f t="shared" si="2"/>
-        <v>554.5000000000033</v>
-      </c>
-      <c r="B147" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="10">
-        <f t="shared" si="2"/>
-        <v>554.60000000000332</v>
-      </c>
-      <c r="B148" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="10">
-        <f t="shared" si="2"/>
-        <v>554.70000000000334</v>
-      </c>
-      <c r="B149" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="10">
-        <f t="shared" si="2"/>
-        <v>554.80000000000337</v>
-      </c>
-      <c r="B150" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="10">
-        <f t="shared" si="2"/>
-        <v>554.90000000000339</v>
-      </c>
-      <c r="B151" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="10">
-        <f t="shared" si="2"/>
-        <v>555.00000000000341</v>
-      </c>
-      <c r="B152" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
-        <f t="shared" si="2"/>
-        <v>555.10000000000343</v>
-      </c>
-      <c r="B153" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="10">
-        <f t="shared" si="2"/>
-        <v>555.20000000000346</v>
-      </c>
-      <c r="B154" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="10">
-        <f t="shared" si="2"/>
-        <v>555.30000000000348</v>
-      </c>
-      <c r="B155" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="10">
-        <f t="shared" si="2"/>
-        <v>555.4000000000035</v>
-      </c>
-      <c r="B156" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="10">
-        <f t="shared" si="2"/>
-        <v>555.50000000000352</v>
-      </c>
-      <c r="B157" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="10">
-        <f t="shared" si="2"/>
-        <v>555.60000000000355</v>
-      </c>
-      <c r="B158" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="10">
-        <f t="shared" si="2"/>
-        <v>555.70000000000357</v>
-      </c>
-      <c r="B159" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="10">
-        <f t="shared" si="2"/>
-        <v>555.80000000000359</v>
-      </c>
-      <c r="B160" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="10">
-        <f t="shared" si="2"/>
-        <v>555.90000000000362</v>
-      </c>
-      <c r="B161" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="10">
-        <f t="shared" si="2"/>
-        <v>556.00000000000364</v>
-      </c>
-      <c r="B162" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="10">
-        <f t="shared" si="2"/>
-        <v>556.10000000000366</v>
-      </c>
-      <c r="B163" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="10">
-        <f t="shared" si="2"/>
-        <v>556.20000000000368</v>
-      </c>
-      <c r="B164" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="10">
-        <f t="shared" si="2"/>
-        <v>556.30000000000371</v>
-      </c>
-      <c r="B165" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
-        <f t="shared" si="2"/>
-        <v>556.40000000000373</v>
-      </c>
-      <c r="B166" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="10">
-        <f t="shared" si="2"/>
-        <v>556.50000000000375</v>
-      </c>
-      <c r="B167" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="10">
-        <f t="shared" si="2"/>
-        <v>556.60000000000377</v>
-      </c>
-      <c r="B168" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="10">
-        <f t="shared" si="2"/>
-        <v>556.7000000000038</v>
-      </c>
-      <c r="B169" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="10">
-        <f t="shared" si="2"/>
-        <v>556.80000000000382</v>
-      </c>
-      <c r="B170" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="10">
-        <f t="shared" si="2"/>
-        <v>556.90000000000384</v>
-      </c>
-      <c r="B171" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="10">
-        <f t="shared" si="2"/>
-        <v>557.00000000000387</v>
-      </c>
-      <c r="B172" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="10">
-        <f t="shared" si="2"/>
-        <v>557.10000000000389</v>
-      </c>
-      <c r="B173" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="10">
-        <f t="shared" si="2"/>
-        <v>557.20000000000391</v>
-      </c>
-      <c r="B174" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="10">
-        <f t="shared" si="2"/>
-        <v>557.30000000000393</v>
-      </c>
-      <c r="B175" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="10">
-        <f t="shared" si="2"/>
-        <v>557.40000000000396</v>
-      </c>
-      <c r="B176" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
-        <f t="shared" si="2"/>
-        <v>557.50000000000398</v>
-      </c>
-      <c r="B177" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="10">
-        <f t="shared" si="2"/>
-        <v>557.600000000004</v>
-      </c>
-      <c r="B178" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="10">
-        <f t="shared" si="2"/>
-        <v>557.70000000000402</v>
-      </c>
-      <c r="B179" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
-        <f t="shared" si="2"/>
-        <v>557.80000000000405</v>
-      </c>
-      <c r="B180" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
-        <f t="shared" si="2"/>
-        <v>557.90000000000407</v>
-      </c>
-      <c r="B181" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="10">
-        <f t="shared" si="2"/>
-        <v>558.00000000000409</v>
-      </c>
-      <c r="B182" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="10">
-        <f t="shared" si="2"/>
-        <v>558.10000000000412</v>
-      </c>
-      <c r="B183" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="10">
-        <f t="shared" si="2"/>
-        <v>558.20000000000414</v>
-      </c>
-      <c r="B184" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="10">
-        <f t="shared" si="2"/>
-        <v>558.30000000000416</v>
-      </c>
-      <c r="B185" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="10">
-        <f t="shared" si="2"/>
-        <v>558.40000000000418</v>
-      </c>
-      <c r="B186" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="10">
-        <f t="shared" si="2"/>
-        <v>558.50000000000421</v>
-      </c>
-      <c r="B187" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="10">
-        <f t="shared" si="2"/>
-        <v>558.60000000000423</v>
-      </c>
-      <c r="B188" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="10">
-        <f t="shared" si="2"/>
-        <v>558.70000000000425</v>
-      </c>
-      <c r="B189" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="10">
-        <f t="shared" si="2"/>
-        <v>558.80000000000427</v>
-      </c>
-      <c r="B190" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="10">
-        <f t="shared" si="2"/>
-        <v>558.9000000000043</v>
-      </c>
-      <c r="B191" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="10">
-        <f t="shared" si="2"/>
-        <v>559.00000000000432</v>
-      </c>
-      <c r="B192" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="10">
-        <f t="shared" si="2"/>
-        <v>559.10000000000434</v>
-      </c>
-      <c r="B193" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="10">
-        <f t="shared" si="2"/>
-        <v>559.20000000000437</v>
-      </c>
-      <c r="B194" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="10">
-        <f t="shared" si="2"/>
-        <v>559.30000000000439</v>
-      </c>
-      <c r="B195" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="10">
-        <f t="shared" ref="A196:A202" si="3">A195+0.1</f>
-        <v>559.40000000000441</v>
-      </c>
-      <c r="B196" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="10">
-        <f t="shared" si="3"/>
-        <v>559.50000000000443</v>
-      </c>
-      <c r="B197" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="10">
-        <f t="shared" si="3"/>
-        <v>559.60000000000446</v>
-      </c>
-      <c r="B198" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="10">
-        <f t="shared" si="3"/>
-        <v>559.70000000000448</v>
-      </c>
-      <c r="B199" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="10">
-        <f t="shared" si="3"/>
-        <v>559.8000000000045</v>
-      </c>
-      <c r="B200" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="10">
-        <f t="shared" si="3"/>
-        <v>559.90000000000452</v>
-      </c>
-      <c r="B201" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="10">
-        <f t="shared" si="3"/>
-        <v>560.00000000000455</v>
-      </c>
-      <c r="B202" s="10">
-        <v>0</v>
-      </c>
-    </row>
+        <v>1.5338106793244656E-3</v>
+      </c>
+    </row>
+    <row r="129" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H30:L32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
